--- a/biology/Zoologie/Conus_pergrandis/Conus_pergrandis.xlsx
+++ b/biology/Zoologie/Conus_pergrandis/Conus_pergrandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus pergrandis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 73 mm et 161 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Taiwan, de l'Indochine, de l'Indo-Malaisie, de la Nouvelle-Calédonie, de la Papouasie-Nouvelle-Guinée, des Philippines, du Pacifique occidental et du Queensland, en Australie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve sur la côte de Taïwan ; Mindanao, l'île de Basilan et l'île de Jolo aux Philippines ; la Papouasie Nouvelle-Guinée de l'ouest de l'île de Boigu au bord ouest de la baie de l'Orangerie ; Inginoo à la pointe nord du Queensland jusqu'à la baie de la Déception sur la côte australienne ; et la Nouvelle-Calédonie. Cette espèce est commune dans les eaux profondes. Il n'y a pas de menaces majeures connues. Elle est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve sur la côte de Taïwan ; Mindanao, l'île de Basilan et l'île de Jolo aux Philippines ; la Papouasie Nouvelle-Guinée de l'ouest de l'île de Boigu au bord ouest de la baie de l'Orangerie ; Inginoo à la pointe nord du Queensland jusqu'à la baie de la Déception sur la côte australienne ; et la Nouvelle-Calédonie. Cette espèce est commune dans les eaux profondes. Il n'y a pas de menaces majeures connues. Elle est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_pergrandis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_pergrandis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus pergrandis a été décrite pour la première fois en 1937 par le malacologiste japonais Tom Iredale[2],[3].
-Synonymes
-Asprella pergrandis (Iredale, 1937) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus pergrandis a été décrite pour la première fois en 1937 par le malacologiste japonais Tom Iredale,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_pergrandis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_pergrandis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asprella pergrandis (Iredale, 1937) · non accepté
 Conus (Embrikena) pergrandis Iredale, 1937 · appellation alternative
 Conus (Embrikena) potusmarumai Kosuge, 1980 · non accepté
 Conus fletcheri Petuch &amp; Mendenhall, 1972 · non accepté
